--- a/pickle/rolling_corr_excel_target_index_MSCI EM_simulation_term_type_2_window_size_33.xlsx
+++ b/pickle/rolling_corr_excel_target_index_MSCI EM_simulation_term_type_2_window_size_33.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>MSCI EM_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>MSCI EM_CNY/USD</t>
   </si>
   <si>
-    <t>MSCI EM_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>MSCI EM_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>MSCI EM_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>MSCI EM_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI EM_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_OECD 소비자물가</t>
   </si>
   <si>
-    <t>MSCI EM_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>MSCI EM_두바이유가</t>
   </si>
   <si>
-    <t>MSCI EM_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI EM_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>MSCI EM_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>MSCI EM_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>MSCI EM_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>MSCI EM_미국 REER</t>
   </si>
   <si>
-    <t>MSCI EM_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>MSCI EM_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>MSCI EM_발틱 해운임지수</t>
   </si>
   <si>
-    <t>MSCI EM_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>MSCI EM_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>MSCI EM_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI EM_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>MSCI EM_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>MSCI EM_유로존 Core CPI</t>
   </si>
   <si>
-    <t>MSCI EM_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>MSCI EM_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>MSCI EM_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>MSCI EM_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>MSCI EM_일본 ESI</t>
   </si>
   <si>
-    <t>MSCI EM_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_일본 REER</t>
   </si>
   <si>
-    <t>MSCI EM_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>MSCI EM_중국 M1 YoY</t>
   </si>
   <si>
-    <t>MSCI EM_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>MSCI EM_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>MSCI EM_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,913 +1893,763 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
@@ -2891,31 +2666,31 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2927,82 +2702,82 @@
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -3011,16 +2786,16 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" t="n">
         <v>0</v>
@@ -3041,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG3" t="n">
         <v>0</v>
@@ -3056,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK3" t="n">
         <v>0</v>
@@ -3065,28 +2840,28 @@
         <v>3</v>
       </c>
       <c r="BM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR3" t="n">
         <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU3" t="n">
         <v>2</v>
@@ -3095,16 +2870,16 @@
         <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BX3" t="n">
         <v>3</v>
       </c>
       <c r="BY3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -3113,46 +2888,46 @@
         <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
         <v>2</v>
       </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
       <c r="CL3" t="n">
         <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CN3" t="n">
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CP3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>0</v>
@@ -3161,22 +2936,22 @@
         <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU3" t="n">
         <v>3</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
         <v>0</v>
@@ -3188,31 +2963,31 @@
         <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DE3" t="n">
         <v>2</v>
       </c>
       <c r="DF3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DG3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DK3" t="n">
         <v>1</v>
@@ -3221,14 +2996,14 @@
         <v>3</v>
       </c>
       <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO3" t="n">
         <v>2</v>
       </c>
-      <c r="DN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>1</v>
-      </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
@@ -3236,13 +3011,13 @@
         <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
@@ -3254,55 +3029,55 @@
         <v>3</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EK3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EM3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EN3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EO3" t="n">
         <v>0</v>
@@ -3311,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
@@ -3323,196 +3098,196 @@
         <v>0</v>
       </c>
       <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD3" t="n">
         <v>2</v>
       </c>
-      <c r="EV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EX3" t="n">
+      <c r="FE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
         <v>2</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="GD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GV3" t="n">
         <v>2</v>
       </c>
-      <c r="EZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FA3" t="n">
+      <c r="GW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
         <v>2</v>
       </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
       <c r="HA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HB3" t="n">
         <v>0</v>
       </c>
       <c r="HC3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="HD3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HE3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HF3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HG3" t="n">
         <v>3</v>
@@ -3521,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="HI3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HJ3" t="n">
         <v>3</v>
@@ -3533,16 +3308,16 @@
         <v>3</v>
       </c>
       <c r="HM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HP3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HQ3" t="n">
         <v>2</v>
@@ -3557,11 +3332,11 @@
         <v>3</v>
       </c>
       <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
         <v>2</v>
       </c>
-      <c r="HV3" t="n">
-        <v>3</v>
-      </c>
       <c r="HW3" t="n">
         <v>3</v>
       </c>
@@ -3569,7 +3344,7 @@
         <v>3</v>
       </c>
       <c r="HY3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HZ3" t="n">
         <v>3</v>
@@ -3578,19 +3353,19 @@
         <v>0</v>
       </c>
       <c r="IB3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IC3" t="n">
         <v>0</v>
       </c>
       <c r="ID3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IF3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IG3" t="n">
         <v>2</v>
@@ -3614,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="IN3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IO3" t="n">
         <v>0</v>
@@ -3622,907 +3397,757 @@
       <c r="IP3" t="n">
         <v>0</v>
       </c>
-      <c r="IQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9218480836104643</v>
+        <v>-0.9321480402014518</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8711332684929036</v>
+        <v>0.9254228291720792</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8930202234518053</v>
+        <v>0.8445709221835901</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8663881769282391</v>
+        <v>0.8447724903622146</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6636395968094041</v>
+        <v>0.6125952825621295</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5156377213322708</v>
+        <v>-0.3111987382601525</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9495870599548589</v>
+        <v>0.9311368515923001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9372045072622545</v>
+        <v>0.9167285215063127</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9325118523512786</v>
+        <v>0.6353348739902096</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9521935375281092</v>
+        <v>0.4499172387536627</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9230203647329924</v>
+        <v>-0.634364710290014</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8758840094885544</v>
+        <v>0.9497354444806043</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9122532112536959</v>
+        <v>-0.8344294553386709</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9107282298687337</v>
+        <v>0.8672595798835281</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3279055184209702</v>
+        <v>0.8093266333979346</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5419202446672728</v>
+        <v>0.8837148908772806</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.8230720256769677</v>
+        <v>0.6363800668010929</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9257475104050082</v>
+        <v>0.6805058150562605</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8398519666201095</v>
+        <v>-0.580654472932233</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8488367970928384</v>
+        <v>0.8967553802292421</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7581108574276912</v>
+        <v>0.5182365264834856</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7888786496838767</v>
+        <v>0.9515612536774328</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6406105850777515</v>
+        <v>0.8885157730298813</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5843561788976955</v>
+        <v>0.06275963108290526</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.7573712128729052</v>
+        <v>0.8747105546522014</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8808065151985967</v>
+        <v>0.6738344767629949</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.4697916706010982</v>
+        <v>0.9146779895154769</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.944806044178247</v>
+        <v>0.7188697268679746</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.874159131741947</v>
+        <v>0.9351347257261992</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1181838149030776</v>
+        <v>0.7429075234140226</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8491808390667178</v>
+        <v>0.5851316752706361</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5546079164824255</v>
+        <v>0.5888901018739872</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.911072100167076</v>
+        <v>-0.2880762459967957</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6803626040273093</v>
+        <v>0.9657174832434978</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.9313263972569673</v>
+        <v>-0.1006589139413672</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6645091406214471</v>
+        <v>0.9102137118057915</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.3902365732444789</v>
+        <v>-0.08948505294996009</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.72841608764274</v>
+        <v>-0.4951698020372831</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.3318298251772443</v>
+        <v>-0.8344385525815523</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9644883386878736</v>
+        <v>0.9497838086607104</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.3244647548701419</v>
+        <v>0.2696542303108148</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9149995269129088</v>
+        <v>-0.8111458104616733</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.2865499273310185</v>
+        <v>-0.693314997489304</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.280810241600697</v>
+        <v>0.9930001789831756</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.8221069248771078</v>
+        <v>0.9819073234651663</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.94752755338021</v>
+        <v>0.966590154214181</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.1278780649190796</v>
+        <v>0.981173840245258</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.8211312483025773</v>
+        <v>1</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.7099196311307614</v>
+        <v>0.9962125257237243</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9954977734722164</v>
+        <v>0.9747984752580338</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9911346637926409</v>
+        <v>0.9577329111311279</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9792868573280641</v>
+        <v>0.9709839590235865</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.9829295577483393</v>
+        <v>0.8713683205139541</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.8426920039434193</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.9978293220536177</v>
+        <v>0.7412948746932237</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9875942361324312</v>
+        <v>0.1702983494126076</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9729419281972885</v>
+        <v>0.8880902505291802</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9496049829149331</v>
+        <v>-0.1624659370118627</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.8283295159318634</v>
+        <v>0.8593111223440534</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.8924064285888224</v>
+        <v>0.02642935449885863</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.6713296481295797</v>
+        <v>0.8881677754413088</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.1516800452375809</v>
+        <v>0.8355976209956207</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.1507972042025195</v>
+        <v>0.5872031359418247</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.8781567506575024</v>
+        <v>-0.4941957560724369</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.8736681939805883</v>
+        <v>0.9615046144285906</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.9327682165068206</v>
+        <v>0.828993044703242</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.3406868147026237</v>
+        <v>0.9529452453231406</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.8551409295861596</v>
+        <v>0.6335112170252404</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.1206243290624399</v>
+        <v>0.9406828305060616</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8585034142843084</v>
+        <v>0.9008174318292401</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.8358299006588794</v>
+        <v>0.4608746506906767</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.5569145536756045</v>
+        <v>0.8580497573611209</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.3434960800787559</v>
+        <v>0.7604504479106942</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.9782159757937412</v>
+        <v>0.7961967685891357</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.9091114086948856</v>
+        <v>-0.8286043538752462</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9614454484203869</v>
+        <v>-0.2346306470919463</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.805060361292684</v>
+        <v>0.546259501170536</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.9817250668387383</v>
+        <v>0.8734356040577189</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.899914217552742</v>
+        <v>0.8260423558745844</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.4534657573497699</v>
+        <v>0.7235320949342338</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.8452449787880189</v>
+        <v>0.3542946283984738</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.6882476379318466</v>
+        <v>0.728005564853226</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.7449336989302223</v>
+        <v>0.8427571190739659</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8554273938817739</v>
+        <v>-0.561170129076296</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.2938976790570911</v>
+        <v>0.8064942876462947</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.3266029179849813</v>
+        <v>0.3939770796400247</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.8153355090488718</v>
+        <v>-0.1630696868487641</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.8143840803894539</v>
+        <v>0.242965258686169</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.6163854823015422</v>
+        <v>-0.1955635468421234</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.3340620535907412</v>
+        <v>0.5144764044848845</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.7943764375053615</v>
+        <v>0.935919155104161</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.809714766872637</v>
+        <v>-0.5940569418392807</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.6787485838128338</v>
+        <v>0.8605814890416803</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.8206260685972095</v>
+        <v>0.9280299700647483</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.3336150112000297</v>
+        <v>-0.5502886969711895</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.2047326097039229</v>
+        <v>0.9357955200483763</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.2328156310010839</v>
+        <v>0.624007300593115</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.1999429067165223</v>
+        <v>0.874006377479259</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.4442976507860786</v>
+        <v>0.9008366708217854</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.93868183120219</v>
+        <v>0.8984410699554443</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.4003277051533184</v>
+        <v>0.8696299426252583</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.6151683648418848</v>
+        <v>-0.733996652813924</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.9428584884250026</v>
+        <v>0.7914440899573225</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.4975267153105017</v>
+        <v>0.5765721484961612</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.9215708163497207</v>
+        <v>0.9246724529208663</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.636014108070091</v>
+        <v>-0.5893282815221336</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.863207974167898</v>
+        <v>0.7055357327270056</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.8881668159229109</v>
+        <v>0.7976730060577425</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.8740399831376953</v>
+        <v>0.196201841382935</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.9226129972506975</v>
+        <v>0.8502452692288605</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.6914065481501915</v>
+        <v>-0.2705259850897563</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.7572557930822106</v>
+        <v>0.7908090440519746</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.3372148314080254</v>
+        <v>-0.6271670824830308</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.8973817616714591</v>
+        <v>0.5162728892053426</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.6714629693843632</v>
+        <v>0.2503650814144875</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.7428744503757803</v>
+        <v>-0.8076988466167533</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.7273001836338273</v>
+        <v>0.8074840657258986</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.1378041897063486</v>
+        <v>0.4046772104624093</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.8595479179782364</v>
+        <v>-0.4792079756578264</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8607447413687289</v>
+        <v>0.935919155104161</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.8308567646733869</v>
+        <v>0.9211734131305928</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.2425952959888383</v>
+        <v>0.9012480685384916</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.7591039005636764</v>
+        <v>0.7190739091700193</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.6277690180384007</v>
+        <v>0.8482166212506158</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.5040075593368104</v>
+        <v>0.4197390914342451</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.3160092297341501</v>
+        <v>0.8691093786328488</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.708271672969786</v>
+        <v>-0.9130560303916354</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.7919000862848977</v>
+        <v>0.9472245997812476</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.7324784631059245</v>
+        <v>0.7524979869401088</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.3206323299327908</v>
+        <v>0.9570501578124203</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.5305361415240532</v>
+        <v>0.9228662203288437</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.8721101570198656</v>
+        <v>0.6607046572410551</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.93868183120219</v>
+        <v>-0.7588788733170939</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.963806154744102</v>
+        <v>0.3632806706845108</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.8281913473672099</v>
+        <v>-0.1179576584864435</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.6519469839336828</v>
+        <v>0.7998665426849254</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.9060126425145607</v>
+        <v>0.9425454810205045</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.269692780151734</v>
+        <v>0.3214522909404283</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.8630683032451544</v>
+        <v>0.8770693070653389</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.8951717251066468</v>
+        <v>0.9193561994492326</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.9833233085689311</v>
+        <v>0.8886693284084484</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.6888143191534487</v>
+        <v>0.8525208381014483</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.962776497756718</v>
+        <v>0.8810550967349902</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9357460894884664</v>
+        <v>-0.9391029127715377</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.5909950174739734</v>
+        <v>0.8977390956301984</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.7638890244419492</v>
+        <v>0.2374959613912634</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.1577319166486387</v>
+        <v>0.7408861207111964</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.215399468492947</v>
+        <v>-0.8698514604130937</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.7625350323857137</v>
+        <v>-0.8677153420990137</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9446864481800503</v>
+        <v>-0.9243922911268788</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0.3373214645379559</v>
+        <v>0.7605260408892113</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.8682632756197641</v>
+        <v>0.7962145762422813</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.9129111503141535</v>
+        <v>0.8256313905216606</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8738787727229071</v>
+        <v>0.6868900009507014</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8308832486246163</v>
+        <v>0.4340052757255187</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8885296285757353</v>
+        <v>0.2074526955549865</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9475311667679527</v>
+        <v>-0.3864953300958088</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9460144828618799</v>
+        <v>0.4499172387536627</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.2718490149158978</v>
+        <v>0.9075460579646397</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.5051688720436649</v>
+        <v>0.3851991137328222</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8667501874753096</v>
+        <v>0.4564540688590739</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.9235693239844622</v>
+        <v>-0.3035436316355297</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.9144971417381514</v>
+        <v>0.8299319233526178</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.7035841599310173</v>
+        <v>-0.5118798490599492</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.7784661542051018</v>
+        <v>-0.3052244526917611</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.7700492355361139</v>
+        <v>-0.5794971080821103</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.94877673386551</v>
+        <v>0.1264278295868073</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.6709434242968961</v>
+        <v>0.9102139248985988</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.483513196624979</v>
+        <v>0.6650877812246189</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.2289817000126675</v>
+        <v>-0.3826879566632041</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.2879617539307856</v>
+        <v>-0.8156782451011715</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.5419202446672728</v>
+        <v>0.8438911526752951</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.9101805539832837</v>
+        <v>0.4118434094705973</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.2842834015682583</v>
+        <v>0.3158777484467872</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.5514642940821155</v>
+        <v>0.7909423551669323</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.2090377912787685</v>
+        <v>0.9102139248985988</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8294943595380566</v>
+        <v>0.7933493932406754</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.48474430460287</v>
+        <v>0.2321609143963554</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0.1422391844740599</v>
+        <v>0.7861761985965813</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.4647744296574556</v>
+        <v>-0.7381285655298189</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.5999967473936303</v>
+        <v>-0.1474235744888209</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.4139214553943987</v>
+        <v>-0.3583981310874883</v>
       </c>
       <c r="GB4" t="n">
-        <v>-0.04846033952726966</v>
+        <v>0.7447117268179259</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.898701231789698</v>
+        <v>0.6701871262785758</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.5246415788497981</v>
+        <v>0.5470858008446476</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.2343253315247145</v>
+        <v>0.8980901751286081</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.7574561338393425</v>
+        <v>0.8773149710159044</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.8847039748043963</v>
+        <v>0.2354331631795455</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.3876803304720484</v>
+        <v>0.82057129400405</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.8872676608099007</v>
+        <v>-0.8114597674400853</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.6183008766264997</v>
+        <v>-0.307167377728398</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.7352101623646332</v>
+        <v>-0.07102431920016281</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.898701231789698</v>
+        <v>0.4320336614938014</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.3489674553511143</v>
+        <v>0.9415701490970364</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.8660556659913634</v>
+        <v>0.9003104828625147</v>
       </c>
       <c r="GO4" t="n">
-        <v>-0.3234678596218661</v>
+        <v>-0.6509380768784155</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.765400516866242</v>
+        <v>-0.7410931393191612</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.78501391063477</v>
+        <v>-0.3071673777283981</v>
       </c>
       <c r="GR4" t="n">
-        <v>-0.06964248566297888</v>
+        <v>-0.3071673777283981</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.5233537374854687</v>
+        <v>0.7926514066247365</v>
       </c>
       <c r="GT4" t="n">
-        <v>0.1469132413373185</v>
+        <v>0.7109049787010372</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.6705657687352039</v>
+        <v>-0.307167377728398</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.7907869821779768</v>
+        <v>0.1928055208264289</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.6143651566680645</v>
+        <v>0.2926838112083011</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.5269840554983737</v>
+        <v>0.5711978621021839</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.8957128008426275</v>
+        <v>0.6773612196522502</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.831360176208618</v>
+        <v>-0.6958536210115163</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.2139869817468905</v>
+        <v>0.8609394974776787</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.8059808555824451</v>
+        <v>0.7170343661087377</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.8120907430565637</v>
+        <v>-0.4863209733625276</v>
       </c>
       <c r="HD4" t="n">
-        <v>-0.3012626806707254</v>
+        <v>-0.7073793466801541</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.1668821542075985</v>
+        <v>0.3051968970291123</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.4618572640117226</v>
+        <v>-0.1258864325662992</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.8822910006043939</v>
+        <v>0.2992493353192185</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.7786758613869412</v>
+        <v>0.9508654916841081</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.9063160038114723</v>
+        <v>-0.8201698005950325</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.7685156211653552</v>
+        <v>0.3527848770925914</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.7288831185938802</v>
+        <v>-0.2689068359433833</v>
       </c>
       <c r="HL4" t="n">
-        <v>-0.301262680670725</v>
+        <v>0.8156645050889066</v>
       </c>
       <c r="HM4" t="n">
-        <v>-0.301262680670725</v>
+        <v>0.7912941516959968</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.7805828705544353</v>
+        <v>-0.2141336994194976</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.720859906576069</v>
+        <v>-0.1315517895418817</v>
       </c>
       <c r="HP4" t="n">
-        <v>-0.3012626806707254</v>
+        <v>-0.3666450600441506</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.1914951806202069</v>
+        <v>-0.2027732757499469</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.3976082569150796</v>
+        <v>-0.7822088481384244</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.5320264211622043</v>
+        <v>0.9411679959168437</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.7557649487076102</v>
+        <v>-0.4086348967285874</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.6797589945896079</v>
+        <v>0.5441172375352051</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.9026169191224919</v>
+        <v>0.435375579283641</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.8891654165705387</v>
+        <v>0.8274796636278401</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.8800029391589274</v>
+        <v>0.7822039040781261</v>
       </c>
       <c r="HY4" t="n">
-        <v>-0.1451121327137483</v>
+        <v>0.6453636512108915</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.8822686863182775</v>
+        <v>-0.2645456729931866</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.7023499595508187</v>
+        <v>-0.5682639709181377</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.5347276615558901</v>
+        <v>-0.2387707111170448</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.6277039258749498</v>
+        <v>-0.2978170805860123</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.4190717587925046</v>
+        <v>-0.8323066565048549</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.05919936559692712</v>
+        <v>0.7591161635055482</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.3323516460513665</v>
+        <v>0.1191021205341174</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.9311854693167568</v>
+        <v>-0.8251186192953556</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.7973755046482108</v>
+        <v>-0.5867667870302548</v>
       </c>
       <c r="II4" t="n">
-        <v>0.4180137599293287</v>
+        <v>0.7591161635055482</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.4873763963267465</v>
+        <v>0.7278406145903524</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.252291035943524</v>
+        <v>-0.4852667919873229</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.6975464926078517</v>
+        <v>0.2576467339808354</v>
       </c>
       <c r="IM4" t="n">
-        <v>-0.1433134788725624</v>
+        <v>-0.1997543417063188</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.06798246265563633</v>
+        <v>-0.4759282634341518</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.367972660919396</v>
+        <v>0.9644718651046784</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.2074090538530021</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.825832365511205</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.9009927802164902</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4221964029037957</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.5520931861279912</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.4578184746487324</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.8219252436526983</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.8020323085186323</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.7540985043693433</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.3947464819164381</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5701574741713988</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1237306374799287</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.2907723738347828</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.818645442668803</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.7762758850407384</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.236219020239922</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.8727345597197305</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.5652360615628683</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.7762758850407384</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.7853974844383554</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.5719344148350327</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.2815724992673669</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.2935575442318903</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.3373736028127383</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.9222156555366223</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.8148928224475056</v>
+        <v>0.8670584363376439</v>
       </c>
     </row>
   </sheetData>
